--- a/Classifications/Vid_3_Morgan_Proofread_Calvin.xlsx
+++ b/Classifications/Vid_3_Morgan_Proofread_Calvin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morgandeneve/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iowa-my.sharepoint.com/personal/cjskalla_uiowa_edu/Documents/Documents/aerobictextreview/Classifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E7AF99-3065-5B4D-98AB-68146343B933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{90E7AF99-3065-5B4D-98AB-68146343B933}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6F681612-723E-4D6B-842B-22C8A618CE4D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="3285" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1394,7 +1394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1416,6 +1416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,10 +1454,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1736,27 +1742,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K270"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="1.5" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1783,7 +1789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1793,17 +1799,17 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1813,14 +1819,14 @@
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1830,14 +1836,14 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="G4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1847,14 +1853,14 @@
       <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1864,14 +1870,14 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1881,39 +1887,42 @@
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="G7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="G9" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1923,11 +1932,14 @@
       <c r="E10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="G10" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1937,11 +1949,14 @@
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="G11" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1951,11 +1966,11 @@
       <c r="E12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="I12" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1965,11 +1980,11 @@
       <c r="E13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I13" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1979,11 +1994,11 @@
       <c r="E14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="I14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1993,11 +2008,11 @@
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="I15" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -2007,11 +2022,8 @@
       <c r="E16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2021,11 +2033,8 @@
       <c r="E17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -2035,11 +2044,8 @@
       <c r="E18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -2050,7 +2056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,7 +2072,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -2088,7 +2094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2121,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>66</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>80</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>81</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -2271,7 +2277,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>84</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -2304,7 +2310,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
@@ -2326,7 +2332,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>96</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -2348,7 +2354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -2370,7 +2376,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>112</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>113</v>
       </c>
@@ -2403,7 +2409,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>114</v>
       </c>
@@ -2414,12 +2420,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -2430,7 +2436,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>117</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>122</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>124</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -2520,7 +2526,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>134</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>142</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>143</v>
       </c>
@@ -2572,7 +2578,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>144</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -2594,7 +2600,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>146</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>151</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>157</v>
       </c>
@@ -2624,7 +2630,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>158</v>
       </c>
@@ -2632,12 +2638,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
@@ -2653,12 +2659,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>163</v>
       </c>
@@ -2666,7 +2672,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>164</v>
       </c>
@@ -2674,7 +2680,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
@@ -2706,12 +2712,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>176</v>
       </c>
@@ -2719,7 +2725,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>178</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
@@ -2735,7 +2741,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
@@ -2751,7 +2757,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>183</v>
       </c>
@@ -2759,7 +2765,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>190</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>193</v>
       </c>
@@ -2799,7 +2805,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>194</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
@@ -2815,7 +2821,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>196</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>197</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>198</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>204</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>205</v>
       </c>
@@ -2863,7 +2869,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -2871,7 +2877,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>212</v>
       </c>
@@ -2879,7 +2885,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>214</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>215</v>
       </c>
@@ -2895,7 +2901,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>216</v>
       </c>
@@ -2903,7 +2909,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>217</v>
       </c>
@@ -2911,7 +2917,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>218</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>219</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>220</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>221</v>
       </c>
@@ -2943,39 +2949,39 @@
         <v>347</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="7" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>154</v>
       </c>
@@ -2983,12 +2989,12 @@
         <v>358</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>230</v>
       </c>
@@ -2996,7 +3002,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>231</v>
       </c>
@@ -3004,17 +3010,17 @@
         <v>365</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>234</v>
       </c>
@@ -3022,7 +3028,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>235</v>
       </c>
@@ -3030,7 +3036,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>236</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>237</v>
       </c>
@@ -3046,7 +3052,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>238</v>
       </c>
@@ -3054,7 +3060,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>239</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>240</v>
       </c>
@@ -3070,7 +3076,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>241</v>
       </c>
@@ -3078,7 +3084,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>242</v>
       </c>
@@ -3086,7 +3092,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>243</v>
       </c>
@@ -3094,662 +3100,662 @@
         <v>156</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>443</v>
       </c>
